--- a/pc/online-manager/src/main/webapp/template/importOrders.xlsx
+++ b/pc/online-manager/src/main/webapp/template/importOrders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,19 +30,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单类型（1分销，2线下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>343</t>
+    <t>订单类型（5线下订单，6工作人员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -438,7 +445,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,7 +453,7 @@
     <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
@@ -464,26 +471,21 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>13888888888</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"1,2"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/pc/online-manager/src/main/webapp/template/importOrders.xlsx
+++ b/pc/online-manager/src/main/webapp/template/importOrders.xlsx
@@ -30,23 +30,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单类型（5线下订单，6工作人员）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15800000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型（5线下订单，6工作人员，0为赠送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15800000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,7 +453,7 @@
     <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
@@ -467,21 +467,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
